--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,12 +15,204 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>4.75</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>9.75</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>6.50</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>7.75</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>12.75</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>13.50</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>MTCSC</t>
+  </si>
+  <si>
+    <t>MPRSC</t>
+  </si>
+  <si>
+    <t>1.88</t>
+  </si>
+  <si>
+    <t>CIGCU</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>CIVNA</t>
+  </si>
+  <si>
+    <t>CI90X</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>CIINT</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>CIROZ</t>
+  </si>
+  <si>
+    <t>1.19</t>
+  </si>
+  <si>
+    <t>CIRRZ</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>CISNA</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>PKPID</t>
+  </si>
+  <si>
+    <t>SÍ</t>
+  </si>
   <si>
     <t>Posventa Y BONO</t>
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>POSES</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>BRW02</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>DRZRW</t>
   </si>
 </sst>
 </file>
@@ -77,19 +269,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -102,6 +282,270 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -110,12 +554,53 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,87 +15,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+  <si>
+    <t>DRFC9</t>
+  </si>
+  <si>
+    <t>DROPJ</t>
+  </si>
+  <si>
+    <t>DRRPI</t>
+  </si>
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>4.50</t>
+    <t>4.96</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>3.00</t>
+    <t>1.93</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>MTCOU</t>
-  </si>
-  <si>
-    <t>MPRCV</t>
+    <t>2.68</t>
   </si>
   <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>2.25</t>
+    <t>3.42</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>3.50</t>
+    <t>5.32</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>4.75</t>
+    <t>7.22</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>6.00</t>
+    <t>9.12</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>9.75</t>
+    <t>14.82</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>5.25</t>
+    <t>6.10</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>6.50</t>
+    <t>8.00</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>7.75</t>
+    <t>9.90</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>9.00</t>
+    <t>11.80</t>
   </si>
   <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>12.75</t>
+    <t>17.50</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -104,33 +110,27 @@
     <t>TDICA</t>
   </si>
   <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>25.40</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
     <t>1.50</t>
   </si>
   <si>
-    <t>PIDCU</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
-    <t>TDICU</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>MTCSC</t>
-  </si>
-  <si>
-    <t>MPRSC</t>
-  </si>
-  <si>
-    <t>1.88</t>
-  </si>
-  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -143,31 +143,37 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>1.34</t>
+    <t>0.85</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>3.13</t>
+    <t>1.17</t>
   </si>
   <si>
     <t>CIROZ</t>
   </si>
   <si>
-    <t>1.19</t>
+    <t>0.70</t>
   </si>
   <si>
     <t>CIRRZ</t>
   </si>
   <si>
-    <t>2.84</t>
-  </si>
-  <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>CISIN</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>CIRSO</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -182,37 +188,85 @@
     <t>Value</t>
   </si>
   <si>
-    <t>POSES</t>
-  </si>
-  <si>
-    <t>141</t>
+    <t>POSCA</t>
+  </si>
+  <si>
+    <t>505</t>
   </si>
   <si>
     <t>BRW02</t>
   </si>
   <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DVP11</t>
+  </si>
+  <si>
+    <t>DVP12</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
     <t>DVMTM</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>DESIM</t>
-  </si>
-  <si>
     <t>DPIDC</t>
   </si>
   <si>
-    <t>75</t>
+    <t>62</t>
   </si>
   <si>
     <t>DCFWP</t>
   </si>
   <si>
-    <t>0</t>
+    <t>60</t>
   </si>
   <si>
     <t>DRZRW</t>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
   </si>
 </sst>
 </file>
@@ -257,19 +311,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -277,240 +347,224 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -528,23 +582,23 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +608,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -562,42 +616,162 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,93 +15,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
-  <si>
-    <t>DRFC9</t>
-  </si>
-  <si>
-    <t>DROPJ</t>
-  </si>
-  <si>
-    <t>DRRPI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+  <si>
+    <t>DPOV5</t>
   </si>
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>4.96</t>
+    <t>6.50</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.93</t>
+    <t>2.00</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>2.68</t>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>3.50</t>
   </si>
   <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>3.42</t>
+    <t>4.50</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>5.32</t>
+    <t>7.00</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>7.22</t>
+    <t>9.50</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>9.12</t>
+    <t>12.00</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>14.82</t>
+    <t>19.50</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>6.10</t>
+    <t>8.00</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>8.00</t>
+    <t>10.50</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>9.90</t>
+    <t>13.00</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>11.80</t>
+    <t>15.50</t>
   </si>
   <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>17.50</t>
+    <t>23.00</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -110,27 +107,27 @@
     <t>TDICA</t>
   </si>
   <si>
-    <t>2.28</t>
+    <t>3.00</t>
   </si>
   <si>
     <t>PIDCU</t>
   </si>
   <si>
-    <t>25.40</t>
+    <t>25.50</t>
   </si>
   <si>
     <t>TDICU</t>
   </si>
   <si>
-    <t>23.00</t>
-  </si>
-  <si>
     <t>MPCSC</t>
   </si>
   <si>
     <t>1.50</t>
   </si>
   <si>
+    <t>MTCSC</t>
+  </si>
+  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -143,19 +140,19 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.85</t>
+    <t>0.95</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>1.17</t>
+    <t>0.77</t>
   </si>
   <si>
     <t>CIROZ</t>
   </si>
   <si>
-    <t>0.70</t>
+    <t>0.38</t>
   </si>
   <si>
     <t>CIRRZ</t>
@@ -164,7 +161,7 @@
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.20</t>
+    <t>0.23</t>
   </si>
   <si>
     <t>CISIN</t>
@@ -176,6 +173,21 @@
     <t>CIRSO</t>
   </si>
   <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>MPCOB</t>
+  </si>
+  <si>
+    <t>MPCOL</t>
+  </si>
+  <si>
+    <t>1.30</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
     <t>PKPID</t>
   </si>
   <si>
@@ -191,46 +203,58 @@
     <t>POSCA</t>
   </si>
   <si>
-    <t>505</t>
-  </si>
-  <si>
-    <t>BRW02</t>
+    <t>261</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>BRW01</t>
   </si>
   <si>
     <t>DVPOA</t>
   </si>
   <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
     <t>100</t>
   </si>
   <si>
-    <t>DVPOM</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
   </si>
   <si>
     <t>DVP11</t>
-  </si>
-  <si>
-    <t>DVP12</t>
-  </si>
-  <si>
-    <t>DVSOA</t>
-  </si>
-  <si>
-    <t>DVMTM</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
-  </si>
-  <si>
-    <t>60</t>
   </si>
   <si>
     <t>DRZRW</t>
@@ -311,7 +335,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -322,16 +346,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -339,7 +353,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -347,224 +361,416 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B27" t="s" s="0">
-        <v>51</v>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -574,7 +780,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -582,23 +788,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +824,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -616,162 +832,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,7 +15,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
+  <si>
+    <t>DROPJ</t>
+  </si>
+  <si>
+    <t>DRRPI</t>
+  </si>
+  <si>
+    <t>DCLI1</t>
+  </si>
   <si>
     <t>DPOV5</t>
   </si>
@@ -23,111 +32,108 @@
     <t>MPMVD</t>
   </si>
   <si>
-    <t>6.50</t>
+    <t>4.16</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>2.00</t>
+    <t>1.70</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
+    <t>2.18</t>
+  </si>
+  <si>
     <t>MTCOU</t>
   </si>
   <si>
-    <t>3.50</t>
+    <t>MPRCV</t>
   </si>
   <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>4.50</t>
+    <t>2.97</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>7.00</t>
+    <t>4.62</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>9.50</t>
+    <t>6.27</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
+    <t>7.92</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>12.87</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>13.20</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
     <t>12.00</t>
   </si>
   <si>
-    <t>TDICF</t>
-  </si>
-  <si>
-    <t>19.50</t>
-  </si>
-  <si>
-    <t>PIDCB</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>PIDCC</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>PIDCD</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>PIDCE</t>
-  </si>
-  <si>
-    <t>15.50</t>
-  </si>
-  <si>
-    <t>PIDCF</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>PIDCA</t>
-  </si>
-  <si>
-    <t>TDICA</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>PIDCU</t>
-  </si>
-  <si>
-    <t>25.50</t>
-  </si>
-  <si>
-    <t>TDICU</t>
-  </si>
-  <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>MTCSC</t>
-  </si>
-  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -140,42 +146,42 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.95</t>
+    <t>0.56</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>0.77</t>
+    <t>0.54</t>
   </si>
   <si>
     <t>CIROZ</t>
   </si>
   <si>
-    <t>0.38</t>
+    <t>0.09</t>
   </si>
   <si>
     <t>CIRRZ</t>
   </si>
   <si>
+    <t>0.27</t>
+  </si>
+  <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.23</t>
+    <t>0.07</t>
   </si>
   <si>
     <t>CISIN</t>
   </si>
   <si>
-    <t>0.02</t>
+    <t>0.00</t>
   </si>
   <si>
     <t>CIRSO</t>
   </si>
   <si>
-    <t>0.04</t>
-  </si>
-  <si>
     <t>PKPID</t>
   </si>
   <si>
@@ -188,97 +194,127 @@
     <t>Value</t>
   </si>
   <si>
-    <t>POSCA</t>
-  </si>
-  <si>
-    <t>POCCA</t>
+    <t>POSES</t>
+  </si>
+  <si>
+    <t>POCES</t>
   </si>
   <si>
     <t>Servicio Suplementario a nivel de linea/servicio</t>
   </si>
   <si>
-    <t>261</t>
+    <t>1383</t>
   </si>
   <si>
     <t>BRW01</t>
   </si>
   <si>
+    <t>DVFGC</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>DVFMV</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>DVFOM</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DVFFN</t>
+  </si>
+  <si>
+    <t>DVFES</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>DCRME</t>
+  </si>
+  <si>
+    <t>DSCOV</t>
+  </si>
+  <si>
+    <t>DTIPM</t>
+  </si>
+  <si>
     <t>DVPOA</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
     <t>DVPOM</t>
   </si>
   <si>
     <t>DVSOA</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>DVSOM</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>DFAXC</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>DVMTM</t>
   </si>
   <si>
-    <t>40</t>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
   <si>
     <t>DPIDC</t>
   </si>
   <si>
-    <t>50</t>
+    <t>67</t>
   </si>
   <si>
     <t>DCFWP</t>
   </si>
   <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
     <t>DRZRW</t>
-  </si>
-  <si>
-    <t>DVMOV</t>
-  </si>
-  <si>
-    <t>DVOOM</t>
-  </si>
-  <si>
-    <t>DVFNA</t>
-  </si>
-  <si>
-    <t>DVGCU</t>
-  </si>
-  <si>
-    <t>DVSMV</t>
-  </si>
-  <si>
-    <t>DVSMO</t>
-  </si>
-  <si>
-    <t>DVSMR</t>
-  </si>
-  <si>
-    <t>DVINT</t>
-  </si>
-  <si>
-    <t>DV90X</t>
-  </si>
-  <si>
-    <t>DVRRE</t>
-  </si>
-  <si>
-    <t>DVRSA</t>
   </si>
 </sst>
 </file>
@@ -323,7 +359,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -334,6 +370,21 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -341,7 +392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -349,45 +400,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>9</v>
@@ -395,194 +446,186 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>2</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -600,31 +643,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +677,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -642,55 +685,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>67</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>74</v>
@@ -698,106 +741,178 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>66</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
   <si>
     <t>DROPJ</t>
   </si>
@@ -29,6 +29,9 @@
     <t>DPOV5</t>
   </si>
   <si>
+    <t>DOVPD</t>
+  </si>
+  <si>
     <t>MPMVD</t>
   </si>
   <si>
@@ -207,6 +210,9 @@
   </si>
   <si>
     <t>BRW01</t>
+  </si>
+  <si>
+    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
   </si>
   <si>
     <t>DVFGC</t>
@@ -359,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -383,6 +389,11 @@
     <row r="4">
       <c r="A4" t="s" s="0">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -400,232 +411,232 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>10</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>41</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>54</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -635,7 +646,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -643,31 +654,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -685,234 +701,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>76</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>DROPJ</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>100</t>
+  </si>
+  <si>
+    <t>Ese Descuento Pertenece a la oferta Primaria</t>
   </si>
   <si>
     <t>DVFMV</t>
@@ -693,7 +696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -706,74 +709,89 @@
       <c r="B1" t="s" s="0">
         <v>67</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>68</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>68</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B7" t="s" s="0">
         <v>77</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>67</v>
@@ -781,15 +799,15 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>67</v>
@@ -797,15 +815,15 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>67</v>
@@ -813,23 +831,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>67</v>
@@ -837,7 +855,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>67</v>
@@ -845,7 +863,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>67</v>
@@ -853,15 +871,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>67</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>67</v>
@@ -869,7 +890,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s" s="0">
         <v>67</v>
@@ -877,7 +898,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s" s="0">
         <v>67</v>
@@ -885,7 +906,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>67</v>
@@ -893,7 +914,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s" s="0">
         <v>67</v>
@@ -901,7 +922,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s" s="0">
         <v>67</v>
@@ -909,7 +930,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="0">
         <v>67</v>
@@ -917,7 +938,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" t="s" s="0">
         <v>67</v>
@@ -925,7 +946,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" t="s" s="0">
         <v>67</v>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,15 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>DROPJ</t>
   </si>
   <si>
+    <t>Descuentos Especial Empresas</t>
+  </si>
+  <si>
     <t>DRRPI</t>
   </si>
   <si>
     <t>DCLI1</t>
+  </si>
+  <si>
+    <t>Descuentos Empresas</t>
   </si>
   <si>
     <t>DPOV5</t>
@@ -368,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -378,24 +384,39 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>4</v>
       </c>
     </row>
@@ -414,232 +435,232 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>12</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -657,36 +678,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -704,252 +725,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
   <si>
     <t>DROPJ</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Descuentos Especial Empresas</t>
   </si>
   <si>
+    <t>Infinity, Integrada, colectiva</t>
+  </si>
+  <si>
     <t>DRRPI</t>
   </si>
   <si>
@@ -30,6 +33,9 @@
   </si>
   <si>
     <t>Descuentos Empresas</t>
+  </si>
+  <si>
+    <t>All types</t>
   </si>
   <si>
     <t>DPOV5</t>
@@ -374,7 +380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -387,37 +393,49 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>4</v>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -435,232 +453,232 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>14</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -678,36 +696,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -725,252 +740,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>72</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>72</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>81</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,90 +15,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="107">
+  <si>
+    <t>DROPJ</t>
+  </si>
+  <si>
+    <t>Descuentos Especial Empresas</t>
+  </si>
+  <si>
+    <t>Infinity, Integrada, colectiva</t>
+  </si>
+  <si>
+    <t>DRRPI</t>
+  </si>
+  <si>
+    <t>DCLI1</t>
+  </si>
+  <si>
+    <t>Descuentos Empresas</t>
+  </si>
+  <si>
+    <t>All types</t>
+  </si>
+  <si>
+    <t>DPOV5</t>
+  </si>
+  <si>
+    <t>DOVPD</t>
+  </si>
+  <si>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>4.16</t>
+  </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.00</t>
+    <t>1.70</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>4.62</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>6.27</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>7.92</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>12.87</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>5.15</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>8.45</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>1.98</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>13.20</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>12.00</t>
   </si>
   <si>
     <t>CIGCU</t>
   </si>
   <si>
-    <t>1000.00</t>
+    <t>2000.00</t>
   </si>
   <si>
     <t>CIVNA</t>
   </si>
   <si>
-    <t>142.68</t>
-  </si>
-  <si>
     <t>CI90X</t>
   </si>
   <si>
-    <t>1.65</t>
+    <t>0.56</t>
+  </si>
+  <si>
+    <t>CIINT</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>CIROZ</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>CIRRZ</t>
+  </si>
+  <si>
+    <t>0.27</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.33</t>
+    <t>0.07</t>
   </si>
   <si>
     <t>CISIN</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>0.00</t>
   </si>
   <si>
     <t>CIRSO</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>MPCOB</t>
-  </si>
-  <si>
-    <t>MPMVD</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>MPIA2</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>MPIB2</t>
-  </si>
-  <si>
-    <t>MPIC2</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>MPID2</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>MPIE2</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>MPIF2</t>
-  </si>
-  <si>
-    <t>28.00</t>
+    <t>PKPID</t>
+  </si>
+  <si>
+    <t>SÍ</t>
   </si>
   <si>
     <t>Posventa Y BONO</t>
@@ -107,55 +209,133 @@
     <t>Value</t>
   </si>
   <si>
-    <t>POCPR</t>
+    <t>POSES</t>
+  </si>
+  <si>
+    <t>POCES</t>
+  </si>
+  <si>
+    <t>Servicio Suplementario a nivel de linea/servicio</t>
+  </si>
+  <si>
+    <t>1383</t>
   </si>
   <si>
     <t>BRW01</t>
   </si>
   <si>
-    <t>Esa Oferta lleva SOA, entonces hay que cargarla en el Gescore</t>
+    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
+  </si>
+  <si>
+    <t>DVFGC</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Ese Descuento Pertenece a la oferta Primaria</t>
+  </si>
+  <si>
+    <t>DVFMV</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>DVFOM</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DVFFN</t>
+  </si>
+  <si>
+    <t>DVFES</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>DCRME</t>
+  </si>
+  <si>
+    <t>DSCOV</t>
+  </si>
+  <si>
+    <t>DTIPM</t>
+  </si>
+  <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
   </si>
   <si>
     <t>DRZRW</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>DVMOV</t>
-  </si>
-  <si>
-    <t>DVOOM</t>
-  </si>
-  <si>
-    <t>DVFNA</t>
-  </si>
-  <si>
-    <t>DVGCU</t>
-  </si>
-  <si>
-    <t>DVSMV</t>
-  </si>
-  <si>
-    <t>DVSMO</t>
-  </si>
-  <si>
-    <t>DVFMV</t>
-  </si>
-  <si>
-    <t>DVFOM</t>
-  </si>
-  <si>
-    <t>DVFFN</t>
-  </si>
-  <si>
-    <t>DVFGC</t>
-  </si>
-  <si>
-    <t>DVSMR</t>
-  </si>
-  <si>
-    <t>DV90X</t>
   </si>
 </sst>
 </file>
@@ -200,19 +380,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -220,122 +453,232 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>27</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -353,25 +696,33 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>30</v>
+        <v>64</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -381,7 +732,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -389,106 +740,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>34</v>
+        <v>71</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>34</v>
+        <v>76</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>34</v>
+        <v>79</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>34</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>34</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>34</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
   <si>
     <t>MPMVD</t>
   </si>
@@ -146,6 +146,9 @@
     <t>CIPNT</t>
   </si>
   <si>
+    <t>CPINT</t>
+  </si>
+  <si>
     <t>2376.00</t>
   </si>
   <si>
@@ -239,12 +242,6 @@
     <t>100</t>
   </si>
   <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
-  </si>
-  <si>
     <t>DINT1</t>
   </si>
   <si>
@@ -303,6 +300,12 @@
   </si>
   <si>
     <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVFIN</t>
+  </si>
+  <si>
+    <t>DVFES</t>
   </si>
   <si>
     <t>DVRRE</t>
@@ -379,10 +382,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
@@ -571,90 +574,90 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -672,28 +675,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -711,202 +714,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,143 +15,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>12.50</t>
+    <t>6.30</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>6.50</t>
+    <t>1.80</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>MTCOU</t>
-  </si>
-  <si>
-    <t>MPRCV</t>
-  </si>
-  <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>9.00</t>
+    <t>4.50</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>7.00</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>12.80</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>15.30</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>22.80</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
     <t>19.00</t>
   </si>
   <si>
-    <t>TDICE</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>TDICF</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>PIDCB</t>
-  </si>
-  <si>
-    <t>15.50</t>
-  </si>
-  <si>
-    <t>PIDCC</t>
-  </si>
-  <si>
-    <t>20.50</t>
-  </si>
-  <si>
-    <t>PIDCD</t>
-  </si>
-  <si>
-    <t>25.50</t>
-  </si>
-  <si>
-    <t>PIDCE</t>
-  </si>
-  <si>
-    <t>30.50</t>
-  </si>
-  <si>
-    <t>PIDCF</t>
-  </si>
-  <si>
-    <t>45.50</t>
-  </si>
-  <si>
-    <t>PIDCA</t>
-  </si>
-  <si>
-    <t>TDICA</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>PIDCU</t>
-  </si>
-  <si>
-    <t>TDICU</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>MTCSC</t>
-  </si>
-  <si>
-    <t>CPGCU</t>
-  </si>
-  <si>
-    <t>1000000.0</t>
-  </si>
-  <si>
-    <t>CPVNA</t>
-  </si>
-  <si>
-    <t>449550.00</t>
-  </si>
-  <si>
-    <t>CP90X</t>
-  </si>
-  <si>
-    <t>2261.00</t>
-  </si>
-  <si>
-    <t>CIPNT</t>
-  </si>
-  <si>
-    <t>CPINT</t>
-  </si>
-  <si>
-    <t>2376.00</t>
-  </si>
-  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -164,43 +125,40 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.59</t>
+    <t>0.76</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>0.62</t>
+    <t>5.06</t>
   </si>
   <si>
     <t>CIROZ</t>
   </si>
   <si>
-    <t>0.47</t>
+    <t>0.25</t>
   </si>
   <si>
     <t>CIRRZ</t>
   </si>
   <si>
-    <t>0.50</t>
-  </si>
-  <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>1.39</t>
+    <t>0.49</t>
   </si>
   <si>
     <t>CISIN</t>
   </si>
   <si>
-    <t>0.06</t>
+    <t>0.08</t>
   </si>
   <si>
     <t>CIRSO</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t>0.10</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -209,12 +167,6 @@
     <t>SÍ</t>
   </si>
   <si>
-    <t>MPMVE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Posventa Y BONO</t>
   </si>
   <si>
@@ -230,88 +182,106 @@
     <t>Servicio Suplementario a nivel de linea/servicio</t>
   </si>
   <si>
-    <t>13685</t>
-  </si>
-  <si>
-    <t>BRW02</t>
-  </si>
-  <si>
-    <t>DGSH1</t>
+    <t>791</t>
+  </si>
+  <si>
+    <t>BRW01</t>
+  </si>
+  <si>
+    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
+  </si>
+  <si>
+    <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
+  </si>
+  <si>
+    <t>Ese PDF contiene la siguiente Tarifa MPMVD</t>
+  </si>
+  <si>
+    <t>Ese PDF contiene más de una tarifa como:</t>
+  </si>
+  <si>
+    <t>Integrado Colaboración</t>
+  </si>
+  <si>
+    <t>Integrado SIP</t>
+  </si>
+  <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>DINT1</t>
-  </si>
-  <si>
-    <t>DINT2</t>
-  </si>
-  <si>
-    <t>DINT3</t>
-  </si>
-  <si>
-    <t>DINT4</t>
-  </si>
-  <si>
-    <t>DBREF</t>
-  </si>
-  <si>
-    <t>DBPIN</t>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
   </si>
   <si>
     <t>DRZRW</t>
-  </si>
-  <si>
-    <t>DVMOV</t>
-  </si>
-  <si>
-    <t>DVOOM</t>
-  </si>
-  <si>
-    <t>DVFNA</t>
-  </si>
-  <si>
-    <t>DVGCU</t>
-  </si>
-  <si>
-    <t>DVSMV</t>
-  </si>
-  <si>
-    <t>DVSMO</t>
-  </si>
-  <si>
-    <t>DVFMV</t>
-  </si>
-  <si>
-    <t>DVFOM</t>
-  </si>
-  <si>
-    <t>DVFFN</t>
-  </si>
-  <si>
-    <t>DVFGC</t>
-  </si>
-  <si>
-    <t>DVSMR</t>
-  </si>
-  <si>
-    <t>DVINT</t>
-  </si>
-  <si>
-    <t>DV90X</t>
-  </si>
-  <si>
-    <t>DVFIN</t>
-  </si>
-  <si>
-    <t>DVFES</t>
-  </si>
-  <si>
-    <t>DVRRE</t>
-  </si>
-  <si>
-    <t>DVRSA</t>
   </si>
 </sst>
 </file>
@@ -368,7 +338,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -382,10 +352,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -409,255 +379,183 @@
         <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
         <v>47</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s" s="0">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s" s="0">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +565,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -675,28 +573,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>67</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>69</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>72</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +640,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -714,55 +648,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s" s="0">
         <v>74</v>
@@ -770,23 +704,23 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s" s="0">
         <v>74</v>
@@ -794,7 +728,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s" s="0">
         <v>74</v>
@@ -802,7 +736,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>74</v>
@@ -810,7 +744,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s" s="0">
         <v>74</v>
@@ -818,7 +752,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B14" t="s" s="0">
         <v>74</v>
@@ -826,7 +760,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s" s="0">
         <v>74</v>
@@ -834,7 +768,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>74</v>
@@ -842,7 +776,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B17" t="s" s="0">
         <v>74</v>
@@ -850,7 +784,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s" s="0">
         <v>74</v>
@@ -858,7 +792,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s" s="0">
         <v>74</v>
@@ -866,7 +800,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s" s="0">
         <v>74</v>
@@ -874,41 +808,9 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>95</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>98</v>
-      </c>
-      <c r="B25" t="s" s="0">
         <v>74</v>
       </c>
     </row>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>6.30</t>
+    <t>14.50</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.80</t>
+    <t>8.50</t>
   </si>
   <si>
     <t>MPCOU</t>
@@ -35,61 +35,61 @@
     <t>TDICB</t>
   </si>
   <si>
-    <t>4.50</t>
+    <t>9.00</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>7.00</t>
+    <t>14.00</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>9.50</t>
+    <t>19.00</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>12.00</t>
+    <t>24.00</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>19.50</t>
+    <t>39.00</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>7.80</t>
+    <t>17.50</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>10.30</t>
+    <t>22.50</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>12.80</t>
+    <t>27.50</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>15.30</t>
+    <t>32.50</t>
   </si>
   <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>22.80</t>
+    <t>47.50</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -98,19 +98,49 @@
     <t>TDICA</t>
   </si>
   <si>
-    <t>3.00</t>
+    <t>6.00</t>
   </si>
   <si>
     <t>PIDCU</t>
   </si>
   <si>
-    <t>25.30</t>
-  </si>
-  <si>
     <t>TDICU</t>
   </si>
   <si>
-    <t>19.00</t>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>CPGCU</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>CPVNA</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>CP90X</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>CIPNT</t>
+  </si>
+  <si>
+    <t>CPINT</t>
+  </si>
+  <si>
+    <t>295.00</t>
   </si>
   <si>
     <t>CIGCU</t>
@@ -125,40 +155,37 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.76</t>
+    <t>2.14</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>5.06</t>
+    <t>4.65</t>
   </si>
   <si>
     <t>CIROZ</t>
   </si>
   <si>
-    <t>0.25</t>
+    <t>2.62</t>
   </si>
   <si>
     <t>CIRRZ</t>
   </si>
   <si>
+    <t>4.33</t>
+  </si>
+  <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.49</t>
+    <t>0.28</t>
   </si>
   <si>
     <t>CISIN</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>CIRSO</t>
-  </si>
-  <si>
-    <t>0.10</t>
+    <t>0.14</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -167,6 +194,12 @@
     <t>SÍ</t>
   </si>
   <si>
+    <t>MPMVE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Posventa Y BONO</t>
   </si>
   <si>
@@ -182,15 +215,12 @@
     <t>Servicio Suplementario a nivel de linea/servicio</t>
   </si>
   <si>
-    <t>791</t>
+    <t>1370</t>
   </si>
   <si>
     <t>BRW01</t>
   </si>
   <si>
-    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
-  </si>
-  <si>
     <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
   </si>
   <si>
@@ -206,46 +236,22 @@
     <t>Integrado SIP</t>
   </si>
   <si>
-    <t>DCRMB</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>DVPOA</t>
+    <t>DVPOM</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
-    <t>DVPOM</t>
-  </si>
-  <si>
-    <t>DVSOA</t>
-  </si>
-  <si>
-    <t>DVSOM</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>DFAXC</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>DVMTM</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DRZRW</t>
   </si>
   <si>
     <t>DVMOV</t>
@@ -266,22 +272,37 @@
     <t>DVSMO</t>
   </si>
   <si>
+    <t>DVFGC</t>
+  </si>
+  <si>
+    <t>DVFFN</t>
+  </si>
+  <si>
+    <t>DVFOM</t>
+  </si>
+  <si>
+    <t>DVFMV</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVFIN</t>
+  </si>
+  <si>
+    <t>DVFES</t>
+  </si>
+  <si>
     <t>DVRRE</t>
   </si>
   <si>
     <t>DVRSA</t>
-  </si>
-  <si>
-    <t>DVSMR</t>
-  </si>
-  <si>
-    <t>DVINT</t>
-  </si>
-  <si>
-    <t>DV90X</t>
-  </si>
-  <si>
-    <t>DRZRW</t>
   </si>
 </sst>
 </file>
@@ -338,7 +359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -352,10 +373,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -475,31 +496,31 @@
         <v>28</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>30</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="0">
         <v>32</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>34</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -520,23 +541,23 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>43</v>
@@ -544,18 +565,58 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -573,48 +634,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10">
@@ -630,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -648,170 +704,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>DROPJ</t>
   </si>
@@ -29,118 +29,154 @@
     <t>DRRPI</t>
   </si>
   <si>
-    <t>DWO00</t>
-  </si>
-  <si>
-    <t>Infinity, Integrada, colectiva, DIVAL, Normal</t>
-  </si>
-  <si>
-    <t>DCLI1</t>
-  </si>
-  <si>
-    <t>Descuentos Empresas</t>
-  </si>
-  <si>
-    <t>All types</t>
-  </si>
-  <si>
-    <t>DPOV5</t>
-  </si>
-  <si>
-    <t>MPRCV</t>
-  </si>
-  <si>
-    <t>1.00</t>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>9.42</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
+    <t>3.99</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>3.88</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>5.94</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>12.54</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>15.84</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>25.74</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>11.40</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>14.70</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>21.30</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>31.20</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>3.96</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>23.50</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
     <t>CIGCU</t>
   </si>
   <si>
-    <t>1000.00</t>
+    <t>2000.00</t>
   </si>
   <si>
     <t>CIVNA</t>
   </si>
   <si>
-    <t>217.63</t>
+    <t>CI90X</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>CIINT</t>
+  </si>
+  <si>
+    <t>7.47</t>
+  </si>
+  <si>
+    <t>CIROZ</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>CIRRZ</t>
+  </si>
+  <si>
+    <t>3.68</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.20</t>
-  </si>
-  <si>
-    <t>MPCOU</t>
-  </si>
-  <si>
-    <t>MTCOU</t>
-  </si>
-  <si>
-    <t>MPMVD</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>MPIA2</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>MPIB2</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>MPIC2</t>
-  </si>
-  <si>
-    <t>9.00</t>
-  </si>
-  <si>
-    <t>MPID2</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>MPIE2</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>MPIF2</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>MPIDU</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>MTCSC</t>
-  </si>
-  <si>
-    <t>MPRSC</t>
-  </si>
-  <si>
-    <t>2.50</t>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>PKPID</t>
+  </si>
+  <si>
+    <t>SÍ</t>
   </si>
   <si>
     <t>Posventa Y BONO</t>
@@ -149,16 +185,16 @@
     <t>Value</t>
   </si>
   <si>
-    <t>POSPU</t>
-  </si>
-  <si>
-    <t>POCPU</t>
+    <t>POSCA</t>
+  </si>
+  <si>
+    <t>POCCA</t>
   </si>
   <si>
     <t>Servicio Suplementario a nivel de linea/servicio</t>
   </si>
   <si>
-    <t>114</t>
+    <t>490</t>
   </si>
   <si>
     <t>BRW01</t>
@@ -182,46 +218,43 @@
     <t>Integrado SIP</t>
   </si>
   <si>
-    <t>DVBMS</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>DCRMB</t>
-  </si>
-  <si>
-    <t>DCT5G</t>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>DVPOA</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>DVPOM</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>DVSOA</t>
-  </si>
-  <si>
-    <t>DVSOM</t>
-  </si>
-  <si>
-    <t>DFAXC</t>
-  </si>
-  <si>
-    <t>DVMTM</t>
-  </si>
-  <si>
-    <t>80</t>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>DBREF</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>DRZRW</t>
   </si>
   <si>
     <t>DVMOV</t>
@@ -242,7 +275,16 @@
     <t>DVSMO</t>
   </si>
   <si>
-    <t>DRZRW</t>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
   </si>
 </sst>
 </file>
@@ -287,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -315,39 +357,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -355,7 +364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -363,146 +372,208 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>53</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B18" t="s" s="0">
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
         <v>41</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -520,64 +591,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>54</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +658,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -595,71 +666,71 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>61</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>68</v>
@@ -667,58 +738,74 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,96 +15,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
-  <si>
-    <t>DROPJ</t>
-  </si>
-  <si>
-    <t>Descuentos Especial Empresas</t>
-  </si>
-  <si>
-    <t>Infinity, Integrada, colectiva</t>
-  </si>
-  <si>
-    <t>DRRPI</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>9.42</t>
+    <t>14.50</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>3.99</t>
+    <t>8.50</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>3.88</t>
-  </si>
-  <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>5.94</t>
+    <t>9.00</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>9.24</t>
+    <t>14.00</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>12.54</t>
+    <t>19.00</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>15.84</t>
+    <t>24.00</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>25.74</t>
+    <t>39.00</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>11.40</t>
+    <t>17.50</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>14.70</t>
+    <t>22.50</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>18.00</t>
+    <t>27.50</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>21.30</t>
+    <t>32.50</t>
   </si>
   <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>31.20</t>
+    <t>47.50</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -113,15 +98,12 @@
     <t>TDICA</t>
   </si>
   <si>
-    <t>3.96</t>
+    <t>6.00</t>
   </si>
   <si>
     <t>PIDCU</t>
   </si>
   <si>
-    <t>23.50</t>
-  </si>
-  <si>
     <t>TDICU</t>
   </si>
   <si>
@@ -134,6 +116,33 @@
     <t>1.50</t>
   </si>
   <si>
+    <t>CPGCU</t>
+  </si>
+  <si>
+    <t>2250.00</t>
+  </si>
+  <si>
+    <t>CPVNA</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>CP90X</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>CIPNT</t>
+  </si>
+  <si>
+    <t>CPINT</t>
+  </si>
+  <si>
+    <t>295.00</t>
+  </si>
+  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -146,31 +155,37 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.61</t>
+    <t>2.14</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>7.47</t>
+    <t>4.65</t>
   </si>
   <si>
     <t>CIROZ</t>
   </si>
   <si>
-    <t>3.15</t>
+    <t>2.62</t>
   </si>
   <si>
     <t>CIRRZ</t>
   </si>
   <si>
-    <t>3.68</t>
+    <t>4.33</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.24</t>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>CISIN</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -179,6 +194,12 @@
     <t>SÍ</t>
   </si>
   <si>
+    <t>MPMVE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Posventa Y BONO</t>
   </si>
   <si>
@@ -191,16 +212,13 @@
     <t>POCCA</t>
   </si>
   <si>
-    <t>Servicio Suplementario a nivel de linea/servicio</t>
-  </si>
-  <si>
-    <t>490</t>
+    <t>Servicio Suplementario a nivel de Cuenta</t>
   </si>
   <si>
     <t>BRW01</t>
   </si>
   <si>
-    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
+    <t>Esa Oferta lleva POVFS, entonces hay que cargarla en el Gescore</t>
   </si>
   <si>
     <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
@@ -218,73 +236,22 @@
     <t>Integrado SIP</t>
   </si>
   <si>
-    <t>DVPOA</t>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>DVSOA</t>
-  </si>
-  <si>
-    <t>DVMTM</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>DESIM</t>
   </si>
   <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>DBREF</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>DRZRW</t>
-  </si>
-  <si>
-    <t>DVMOV</t>
-  </si>
-  <si>
-    <t>DVOOM</t>
-  </si>
-  <si>
-    <t>DVFNA</t>
-  </si>
-  <si>
-    <t>DVGCU</t>
-  </si>
-  <si>
-    <t>DVSMV</t>
-  </si>
-  <si>
-    <t>DVSMO</t>
-  </si>
-  <si>
-    <t>DVINT</t>
-  </si>
-  <si>
-    <t>DV90X</t>
-  </si>
-  <si>
-    <t>DVRRE</t>
-  </si>
-  <si>
-    <t>DVRSA</t>
   </si>
 </sst>
 </file>
@@ -329,42 +296,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -372,208 +316,256 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B25" t="s" s="0">
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
         <v>51</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +575,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -591,64 +583,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>1370.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -658,7 +648,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,146 +656,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s" s="0">
         <v>76</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,18 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>14.50</t>
+    <t>6.30</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>8.50</t>
+    <t>1.80</t>
   </si>
   <si>
     <t>MPCOU</t>
@@ -35,114 +35,84 @@
     <t>TDICB</t>
   </si>
   <si>
-    <t>9.00</t>
+    <t>4.50</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>14.00</t>
+    <t>7.00</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>12.80</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>15.30</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>22.80</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>25.30</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
     <t>19.00</t>
   </si>
   <si>
-    <t>TDICE</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>TDICF</t>
-  </si>
-  <si>
-    <t>39.00</t>
-  </si>
-  <si>
-    <t>PIDCB</t>
-  </si>
-  <si>
-    <t>17.50</t>
-  </si>
-  <si>
-    <t>PIDCC</t>
-  </si>
-  <si>
-    <t>22.50</t>
-  </si>
-  <si>
-    <t>PIDCD</t>
-  </si>
-  <si>
-    <t>27.50</t>
-  </si>
-  <si>
-    <t>PIDCE</t>
-  </si>
-  <si>
-    <t>32.50</t>
-  </si>
-  <si>
-    <t>PIDCF</t>
-  </si>
-  <si>
-    <t>47.50</t>
-  </si>
-  <si>
-    <t>PIDCA</t>
-  </si>
-  <si>
-    <t>TDICA</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>PIDCU</t>
-  </si>
-  <si>
-    <t>TDICU</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>CPGCU</t>
-  </si>
-  <si>
-    <t>2250.00</t>
-  </si>
-  <si>
-    <t>CPVNA</t>
-  </si>
-  <si>
-    <t>3500.00</t>
-  </si>
-  <si>
-    <t>CP90X</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>CIPNT</t>
-  </si>
-  <si>
-    <t>CPINT</t>
-  </si>
-  <si>
-    <t>295.00</t>
-  </si>
-  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -155,37 +125,40 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>2.14</t>
+    <t>0.76</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>4.65</t>
+    <t>5.06</t>
   </si>
   <si>
     <t>CIROZ</t>
   </si>
   <si>
-    <t>2.62</t>
+    <t>0.25</t>
   </si>
   <si>
     <t>CIRRZ</t>
   </si>
   <si>
-    <t>4.33</t>
-  </si>
-  <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.28</t>
+    <t>0.49</t>
   </si>
   <si>
     <t>CISIN</t>
   </si>
   <si>
-    <t>0.14</t>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>CIRSO</t>
+  </si>
+  <si>
+    <t>0.10</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -194,12 +167,6 @@
     <t>SÍ</t>
   </si>
   <si>
-    <t>MPMVE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Posventa Y BONO</t>
   </si>
   <si>
@@ -218,7 +185,7 @@
     <t>BRW01</t>
   </si>
   <si>
-    <t>Esa Oferta lleva POVFS, entonces hay que cargarla en el Gescore</t>
+    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
   </si>
   <si>
     <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
@@ -236,10 +203,34 @@
     <t>Integrado SIP</t>
   </si>
   <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
     <t>DVPOM</t>
   </si>
   <si>
-    <t>90</t>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
   <si>
     <t>DVMTM</t>
@@ -248,7 +239,43 @@
     <t>100</t>
   </si>
   <si>
-    <t>DESIM</t>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
   </si>
   <si>
     <t>DRZRW</t>
@@ -308,7 +335,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -322,10 +349,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -445,31 +472,31 @@
         <v>28</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s" s="0">
         <v>33</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>34</v>
       </c>
     </row>
     <row r="20">
@@ -490,23 +517,23 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>40</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s" s="0">
         <v>43</v>
@@ -514,58 +541,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s" s="0">
         <v>47</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -583,46 +570,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>1370.0</v>
+        <v>791.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -638,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -648,7 +635,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -656,34 +643,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>76</v>
+      <c r="B12" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,18 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
+  <si>
+    <t>DRFC8</t>
+  </si>
+  <si>
+    <t>Descuentos Especial Empresas</t>
+  </si>
+  <si>
+    <t>Infinity, Integrada, colectiva</t>
+  </si>
+  <si>
+    <t>DRFC9</t>
+  </si>
+  <si>
+    <t>DROPJ</t>
+  </si>
+  <si>
+    <t>DRRPI</t>
+  </si>
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>6.30</t>
+    <t>3.44</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.80</t>
+    <t>1.82</t>
   </si>
   <si>
     <t>MPCOU</t>
@@ -35,61 +53,61 @@
     <t>TDICB</t>
   </si>
   <si>
-    <t>4.50</t>
+    <t>2.43</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>7.00</t>
+    <t>3.78</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>9.50</t>
+    <t>5.13</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>12.00</t>
+    <t>6.48</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>19.50</t>
+    <t>10.53</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>7.80</t>
+    <t>4.25</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>10.30</t>
+    <t>5.60</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>12.80</t>
+    <t>6.95</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>15.30</t>
+    <t>8.30</t>
   </si>
   <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>22.80</t>
+    <t>12.35</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -98,19 +116,25 @@
     <t>TDICA</t>
   </si>
   <si>
-    <t>3.00</t>
+    <t>1.62</t>
   </si>
   <si>
     <t>PIDCU</t>
   </si>
   <si>
-    <t>25.30</t>
+    <t>25.20</t>
   </si>
   <si>
     <t>TDICU</t>
   </si>
   <si>
-    <t>19.00</t>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1.50</t>
   </si>
   <si>
     <t>CIGCU</t>
@@ -125,40 +149,19 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.76</t>
+    <t>0.38</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>5.06</t>
-  </si>
-  <si>
-    <t>CIROZ</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>CIRRZ</t>
+    <t>3.79</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>CISIN</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>CIRSO</t>
-  </si>
-  <si>
-    <t>0.10</t>
+    <t>0.24</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -182,10 +185,10 @@
     <t>Servicio Suplementario a nivel de Cuenta</t>
   </si>
   <si>
-    <t>BRW01</t>
-  </si>
-  <si>
-    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
+    <t>BRW02</t>
+  </si>
+  <si>
+    <t>Esa Oferta lleva POVFS, entonces hay que cargarla en el Gescore</t>
   </si>
   <si>
     <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
@@ -203,48 +206,30 @@
     <t>Integrado SIP</t>
   </si>
   <si>
-    <t>DCRMB</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>DVPOA</t>
   </si>
   <si>
     <t>90</t>
   </si>
   <si>
+    <t>DVP11</t>
+  </si>
+  <si>
     <t>DVPOM</t>
   </si>
   <si>
-    <t>DVSOA</t>
-  </si>
-  <si>
-    <t>DVSOM</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>DFAXC</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>DVMTM</t>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>DRZRW</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>DCFWP</t>
-  </si>
-  <si>
     <t>DVMOV</t>
   </si>
   <si>
@@ -263,22 +248,10 @@
     <t>DVSMO</t>
   </si>
   <si>
-    <t>DVRRE</t>
-  </si>
-  <si>
-    <t>DVRSA</t>
-  </si>
-  <si>
-    <t>DVSMR</t>
-  </si>
-  <si>
     <t>DVINT</t>
   </si>
   <si>
     <t>DV90X</t>
-  </si>
-  <si>
-    <t>DRZRW</t>
   </si>
 </sst>
 </file>
@@ -323,19 +296,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -343,216 +361,192 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +556,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -570,31 +564,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>791.0</v>
+        <v>1008.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -614,18 +608,23 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="0">
         <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -635,7 +634,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -643,18 +642,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>64</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -662,7 +661,7 @@
         <v>66</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -670,23 +669,23 @@
         <v>67</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -694,119 +693,55 @@
         <v>72</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B17" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B18" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,9 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="79">
-  <si>
-    <t>DRFC8</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+  <si>
+    <t>DROPJ</t>
   </si>
   <si>
     <t>Descuentos Especial Empresas</t>
@@ -26,88 +26,100 @@
     <t>Infinity, Integrada, colectiva</t>
   </si>
   <si>
-    <t>DRFC9</t>
-  </si>
-  <si>
-    <t>DROPJ</t>
-  </si>
-  <si>
     <t>DRRPI</t>
   </si>
   <si>
+    <t>DCLI1</t>
+  </si>
+  <si>
+    <t>Descuentos Empresas</t>
+  </si>
+  <si>
+    <t>All types</t>
+  </si>
+  <si>
+    <t>DPOV5</t>
+  </si>
+  <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>3.44</t>
+    <t>13.00</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.82</t>
+    <t>7.00</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
+  </si>
+  <si>
     <t>TDICB</t>
   </si>
   <si>
-    <t>2.43</t>
+    <t>9.00</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>3.78</t>
+    <t>14.00</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>5.13</t>
+    <t>19.00</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>6.48</t>
+    <t>24.00</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>10.53</t>
+    <t>39.00</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>4.25</t>
+    <t>16.00</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>5.60</t>
+    <t>21.00</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>6.95</t>
+    <t>26.00</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>8.30</t>
+    <t>31.00</t>
   </si>
   <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>12.35</t>
+    <t>46.00</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -116,13 +128,13 @@
     <t>TDICA</t>
   </si>
   <si>
-    <t>1.62</t>
+    <t>6.00</t>
   </si>
   <si>
     <t>PIDCU</t>
   </si>
   <si>
-    <t>25.20</t>
+    <t>61.00</t>
   </si>
   <si>
     <t>TDICU</t>
@@ -131,12 +143,6 @@
     <t>23.00</t>
   </si>
   <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -149,19 +155,40 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.38</t>
+    <t>4.62</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>3.79</t>
+    <t>10.29</t>
+  </si>
+  <si>
+    <t>CIROZ</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>CIRRZ</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.24</t>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>CISIN</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>CIRSO</t>
+  </si>
+  <si>
+    <t>0.52</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -176,10 +203,10 @@
     <t>Value</t>
   </si>
   <si>
-    <t>POSCA</t>
-  </si>
-  <si>
-    <t>POCCA</t>
+    <t>POSPU</t>
+  </si>
+  <si>
+    <t>POCPU</t>
   </si>
   <si>
     <t>Servicio Suplementario a nivel de Cuenta</t>
@@ -188,7 +215,7 @@
     <t>BRW02</t>
   </si>
   <si>
-    <t>Esa Oferta lleva POVFS, entonces hay que cargarla en el Gescore</t>
+    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
   </si>
   <si>
     <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
@@ -206,52 +233,55 @@
     <t>Integrado SIP</t>
   </si>
   <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>DCRME</t>
+  </si>
+  <si>
+    <t>DTIPM</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
     <t>DVPOA</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>DVP11</t>
+    <t>100</t>
   </si>
   <si>
     <t>DVPOM</t>
   </si>
   <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>73</t>
+    <t>75</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>73.33</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>80</t>
   </si>
   <si>
     <t>DRZRW</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>DVMOV</t>
-  </si>
-  <si>
-    <t>DVOOM</t>
-  </si>
-  <si>
-    <t>DVFNA</t>
-  </si>
-  <si>
-    <t>DVGCU</t>
-  </si>
-  <si>
-    <t>DVSMV</t>
-  </si>
-  <si>
-    <t>DVSMO</t>
-  </si>
-  <si>
-    <t>DVINT</t>
-  </si>
-  <si>
-    <t>DV90X</t>
   </si>
 </sst>
 </file>
@@ -329,21 +359,21 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>1</v>
-      </c>
       <c r="C4" t="s" s="0">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -353,7 +383,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -361,48 +391,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s" s="0">
         <v>11</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -474,23 +504,23 @@
         <v>31</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -522,15 +552,15 @@
         <v>42</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s" s="0">
         <v>43</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -547,6 +577,46 @@
       </c>
       <c r="B23" t="s" s="0">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -564,67 +634,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>1008.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>60</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +704,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -642,106 +712,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
         <v>78</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>DRFC9</t>
   </si>
@@ -26,127 +26,181 @@
     <t>Infinity, Integrada, colectiva</t>
   </si>
   <si>
-    <t>DROPI</t>
-  </si>
-  <si>
-    <t>DRRPH</t>
-  </si>
-  <si>
-    <t>DSLIM</t>
-  </si>
-  <si>
-    <t>M2M, Infinity, Integrada</t>
-  </si>
-  <si>
-    <t>DWO00</t>
-  </si>
-  <si>
-    <t>Infinity, Integrada, colectiva, DIVAL, Normal</t>
-  </si>
-  <si>
-    <t>DACR6</t>
-  </si>
-  <si>
-    <t>Descuentos Empresas</t>
-  </si>
-  <si>
-    <t>All types</t>
-  </si>
-  <si>
-    <t>DCLI1</t>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>5.00</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.00</t>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>8.40</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>13.65</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>7.80</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>9.55</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>11.30</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>16.55</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>21.80</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>MTCSC</t>
+  </si>
+  <si>
+    <t>MPRSC</t>
+  </si>
+  <si>
+    <t>1.33</t>
   </si>
   <si>
     <t>CIGCU</t>
   </si>
   <si>
-    <t>1000.06</t>
+    <t>2000.00</t>
   </si>
   <si>
     <t>CIVNA</t>
   </si>
   <si>
-    <t>102.47</t>
+    <t>CI90X</t>
+  </si>
+  <si>
+    <t>1.20</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>0.09</t>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>CIROZ</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>CIRRZ</t>
+  </si>
+  <si>
+    <t>0.77</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.04</t>
+    <t>0.30</t>
   </si>
   <si>
     <t>CISIN</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>0.05</t>
   </si>
   <si>
     <t>CIRSO</t>
   </si>
   <si>
-    <t>MPCOB</t>
-  </si>
-  <si>
-    <t>MPCOU</t>
-  </si>
-  <si>
-    <t>MPMVD</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>MPIA2</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>MPIB2</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>MPIC2</t>
-  </si>
-  <si>
-    <t>13.50</t>
-  </si>
-  <si>
-    <t>MPID2</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>MPIE2</t>
-  </si>
-  <si>
-    <t>22.50</t>
-  </si>
-  <si>
-    <t>MPIF2</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>MPIDU</t>
-  </si>
-  <si>
-    <t>36.00</t>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>PKPID</t>
+  </si>
+  <si>
+    <t>SÍ</t>
   </si>
   <si>
     <t>Posventa Y BONO</t>
@@ -155,45 +209,75 @@
     <t>Value</t>
   </si>
   <si>
-    <t>POSCA</t>
-  </si>
-  <si>
-    <t>POCCA</t>
+    <t>POSES</t>
+  </si>
+  <si>
+    <t>POCES</t>
   </si>
   <si>
     <t>Servicio Suplementario a nivel de Cuenta</t>
   </si>
   <si>
-    <t>BRW02</t>
-  </si>
-  <si>
-    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
+    <t>BRW01</t>
+  </si>
+  <si>
+    <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
   </si>
   <si>
     <t>Ese PDF contiene la siguiente Tarifa MPMVD</t>
   </si>
   <si>
+    <t>Ese PDF contiene más de una tarifa como:</t>
+  </si>
+  <si>
+    <t>Integrado Colaboración</t>
+  </si>
+  <si>
     <t>Integrado SIP</t>
   </si>
   <si>
-    <t>DVPOA</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>DVSOA</t>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>DESIM</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DCFWP</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>DRZRW</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>DVMTM</t>
-  </si>
-  <si>
-    <t>DRZRW</t>
-  </si>
-  <si>
     <t>DVMOV</t>
   </si>
   <si>
@@ -216,6 +300,9 @@
   </si>
   <si>
     <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
   </si>
 </sst>
 </file>
@@ -260,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -277,72 +364,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -350,7 +371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -358,130 +379,256 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B16" t="s" s="0">
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
         <v>43</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -491,7 +638,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -499,49 +646,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>1684.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>52</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -551,7 +711,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -559,98 +719,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="B1" t="n" s="0">
-        <v>100.0</v>
+        <v>73</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>56</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>56</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,180 +15,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
-  <si>
-    <t>D90FN</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+  <si>
+    <t>DROPE</t>
   </si>
   <si>
     <t>Descuentos Especial Empresas</t>
   </si>
   <si>
-    <t>Primaria Normal, SIP Normal, Normal</t>
-  </si>
-  <si>
-    <t>DCSOA</t>
+    <t>Infinity, Integrada, colectiva</t>
+  </si>
+  <si>
+    <t>DRRPE</t>
+  </si>
+  <si>
+    <t>DCLI1</t>
+  </si>
+  <si>
+    <t>Descuentos Empresas</t>
   </si>
   <si>
     <t>All types</t>
   </si>
   <si>
-    <t>DRFC9</t>
-  </si>
-  <si>
-    <t>Infinity, Integrada, colectiva</t>
-  </si>
-  <si>
-    <t>DROPF</t>
-  </si>
-  <si>
-    <t>DRRPI</t>
-  </si>
-  <si>
-    <t>DSI70</t>
-  </si>
-  <si>
-    <t>Primaria</t>
-  </si>
-  <si>
-    <t>DSLIM</t>
-  </si>
-  <si>
-    <t>M2M, Infinity, Integrada</t>
-  </si>
-  <si>
-    <t>DSMUL</t>
-  </si>
-  <si>
-    <t>DVN80</t>
-  </si>
-  <si>
-    <t>Primaria Normal, SIP Normal</t>
-  </si>
-  <si>
-    <t>DVV90</t>
-  </si>
-  <si>
-    <t>DWO00</t>
-  </si>
-  <si>
-    <t>Infinity, Integrada, colectiva, DIVAL, Normal</t>
-  </si>
-  <si>
-    <t>DCLI5</t>
-  </si>
-  <si>
-    <t>Descuentos Empresas</t>
-  </si>
-  <si>
     <t>DPOV5</t>
   </si>
   <si>
-    <t>DGCTO</t>
-  </si>
-  <si>
-    <t>Descuentos Promociones</t>
-  </si>
-  <si>
-    <t>DSVO5</t>
-  </si>
-  <si>
-    <t>All Types</t>
+    <t>MPMVD</t>
+  </si>
+  <si>
+    <t>13.54</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
+    <t>7.54</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>39.00</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>16.54</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>21.54</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>26.54</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>31.54</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>46.54</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
     <t>1.50</t>
   </si>
   <si>
     <t>CIGCU</t>
   </si>
   <si>
-    <t>1000.00</t>
+    <t>2000.00</t>
   </si>
   <si>
     <t>CIVNA</t>
   </si>
   <si>
-    <t>126.65</t>
+    <t>CI90X</t>
+  </si>
+  <si>
+    <t>0.16</t>
   </si>
   <si>
     <t>CIINT</t>
   </si>
   <si>
-    <t>1.37</t>
+    <t>9.98</t>
   </si>
   <si>
     <t>CIROZ</t>
   </si>
   <si>
-    <t>0.35</t>
+    <t>2.17</t>
   </si>
   <si>
     <t>CIRRZ</t>
   </si>
   <si>
-    <t>1.11</t>
+    <t>3.70</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.21</t>
+    <t>0.09</t>
   </si>
   <si>
     <t>CISIN</t>
   </si>
   <si>
-    <t>0.02</t>
+    <t>0.08</t>
   </si>
   <si>
     <t>CIRSO</t>
   </si>
   <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>MPMVD</t>
-  </si>
-  <si>
-    <t>6.50</t>
-  </si>
-  <si>
-    <t>MPIA2</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>MPIB2</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>MPIC2</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>MPID2</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>MPIE2</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>MPIF2</t>
-  </si>
-  <si>
-    <t>32.00</t>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>PKPID</t>
+  </si>
+  <si>
+    <t>SÍ</t>
   </si>
   <si>
     <t>Posventa Y BONO</t>
@@ -197,22 +203,19 @@
     <t>Value</t>
   </si>
   <si>
-    <t>POSCA</t>
-  </si>
-  <si>
-    <t>POCCA</t>
-  </si>
-  <si>
-    <t>Servicio Suplementario a nivel de Cuenta</t>
-  </si>
-  <si>
-    <t>BRW02</t>
+    <t>POSP1</t>
+  </si>
+  <si>
+    <t>POCPR</t>
+  </si>
+  <si>
+    <t>BRW07</t>
   </si>
   <si>
     <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
   </si>
   <si>
-    <t>Ese PDF contiene la siguiente Tarifa LVSH5</t>
+    <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
   </si>
   <si>
     <t>Ese PDF contiene la siguiente Tarifa MPMVD</t>
@@ -221,16 +224,79 @@
     <t>Ese PDF contiene más de una tarifa como:</t>
   </si>
   <si>
-    <t>LVSH5</t>
+    <t>Integrado Colaboración</t>
   </si>
   <si>
     <t>Integrado SIP</t>
   </si>
   <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DVP11</t>
+  </si>
+  <si>
+    <t>DVP12</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>DBREF</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>DRZRW</t>
   </si>
   <si>
-    <t>100</t>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
   </si>
 </sst>
 </file>
@@ -275,7 +341,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -300,15 +366,15 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>5</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>1</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>6</v>
@@ -319,131 +385,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -453,7 +398,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -461,129 +406,223 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>59</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
@@ -602,67 +641,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>1348.0</v>
+        <v>1762.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +708,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -680,10 +716,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="B1" t="s" s="0">
         <v>71</v>
+      </c>
+      <c r="B1" t="n" s="0">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,116 +15,161 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
-  <si>
-    <t>DROPJ</t>
-  </si>
-  <si>
-    <t>Descuentos Especial Empresas</t>
-  </si>
-  <si>
-    <t>Infinity, Integrada, colectiva</t>
-  </si>
-  <si>
-    <t>DRRPI</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="102">
+  <si>
+    <t>DCALF</t>
+  </si>
+  <si>
+    <t>Catalogo Terceros</t>
+  </si>
+  <si>
+    <t>RED BOX</t>
+  </si>
+  <si>
+    <t>DF100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>DSCMS</t>
   </si>
   <si>
     <t>MPMVD</t>
   </si>
   <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>MPMVB</t>
+  </si>
+  <si>
+    <t>1.55</t>
+  </si>
+  <si>
+    <t>MPCOU</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>MTCOU</t>
+  </si>
+  <si>
+    <t>MPRCV</t>
+  </si>
+  <si>
+    <t>TDICB</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>TDICC</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>TDICD</t>
+  </si>
+  <si>
+    <t>9.50</t>
+  </si>
+  <si>
+    <t>TDICE</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>7.55</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>12.55</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>22.55</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>MPMVB</t>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
   </si>
   <si>
     <t>1.50</t>
   </si>
   <si>
-    <t>MPCOU</t>
-  </si>
-  <si>
-    <t>MTCOU</t>
-  </si>
-  <si>
-    <t>MPRCV</t>
-  </si>
-  <si>
-    <t>TDICB</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>TDICC</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>TDICD</t>
-  </si>
-  <si>
-    <t>4.75</t>
-  </si>
-  <si>
-    <t>TDICE</t>
+    <t>MTCSC</t>
+  </si>
+  <si>
+    <t>MPRSC</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>CPVNA</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>CP90X</t>
+  </si>
+  <si>
+    <t>CIPNT</t>
+  </si>
+  <si>
+    <t>CPINT</t>
   </si>
   <si>
     <t>6.00</t>
   </si>
   <si>
-    <t>TDICF</t>
-  </si>
-  <si>
-    <t>9.75</t>
-  </si>
-  <si>
-    <t>PIDCB</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>PIDCC</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>PIDCD</t>
-  </si>
-  <si>
-    <t>6.25</t>
-  </si>
-  <si>
-    <t>PIDCE</t>
-  </si>
-  <si>
-    <t>7.50</t>
-  </si>
-  <si>
-    <t>PIDCF</t>
-  </si>
-  <si>
-    <t>11.25</t>
-  </si>
-  <si>
-    <t>PIDCA</t>
-  </si>
-  <si>
-    <t>TDICA</t>
-  </si>
-  <si>
-    <t>PIDCU</t>
-  </si>
-  <si>
-    <t>21.00</t>
-  </si>
-  <si>
-    <t>TDICU</t>
-  </si>
-  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -134,12 +179,36 @@
     <t>CIVNA</t>
   </si>
   <si>
+    <t>CI90X</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>CISNA</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>CISIN</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>PKPID</t>
   </si>
   <si>
     <t>SÍ</t>
   </si>
   <si>
+    <t>MPMVE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Posventa Y BONO</t>
   </si>
   <si>
@@ -158,12 +227,12 @@
     <t>BRW01</t>
   </si>
   <si>
-    <t>Esa Oferta lleva POVFS, entonces hay que cargarla en el Gescore</t>
-  </si>
-  <si>
     <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
   </si>
   <si>
+    <t>Ese PDF contiene la siguiente Tarifa XPS</t>
+  </si>
+  <si>
     <t>Ese PDF contiene la siguiente Tarifa MPMVD</t>
   </si>
   <si>
@@ -173,25 +242,85 @@
     <t>Integrado Colaboración</t>
   </si>
   <si>
+    <t>XPS</t>
+  </si>
+  <si>
+    <t>REDBOX</t>
+  </si>
+  <si>
     <t>Integrado SIP</t>
   </si>
   <si>
-    <t>DVPOM</t>
+    <t>DVXSV</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Tren de Red Box</t>
+  </si>
+  <si>
+    <t>DVXSO</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>75</t>
+    <t>DBREF</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>DRZRW</t>
   </si>
   <si>
-    <t>100</t>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVFGC</t>
+  </si>
+  <si>
+    <t>DVFFN</t>
+  </si>
+  <si>
+    <t>DVFOM</t>
+  </si>
+  <si>
+    <t>DVFMV</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
+  </si>
+  <si>
+    <t>DVFIN</t>
+  </si>
+  <si>
+    <t>DVFES</t>
   </si>
 </sst>
 </file>
@@ -236,7 +365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -261,6 +390,17 @@
         <v>1</v>
       </c>
       <c r="C2" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>2</v>
       </c>
     </row>
@@ -271,7 +411,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -279,176 +419,256 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +678,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -466,67 +686,75 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>30.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>46</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>47</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>52</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -536,7 +764,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,26 +772,168 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>54</v>
+        <v>79</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>80</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>58</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,53 +15,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
-  <si>
-    <t>DROPJ</t>
-  </si>
-  <si>
-    <t>Descuentos Especial Empresas</t>
-  </si>
-  <si>
-    <t>Infinity, Integrada, colectiva</t>
-  </si>
-  <si>
-    <t>DRRPI</t>
-  </si>
-  <si>
-    <t>DSLIM</t>
-  </si>
-  <si>
-    <t>M2M, Infinity, Integrada</t>
-  </si>
-  <si>
-    <t>DCLI1</t>
-  </si>
-  <si>
-    <t>Descuentos Empresas</t>
-  </si>
-  <si>
-    <t>All types</t>
-  </si>
-  <si>
-    <t>DPOV5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
+  <si>
+    <t>DCALF</t>
+  </si>
+  <si>
+    <t>Catalogo Terceros</t>
+  </si>
+  <si>
+    <t>RED BOX</t>
+  </si>
+  <si>
+    <t>DF100</t>
+  </si>
+  <si>
+    <t>DSCMS</t>
   </si>
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>3.40</t>
+    <t>6.05</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.90</t>
+    <t>1.55</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
+    <t>3.05</t>
+  </si>
+  <si>
     <t>MTCOU</t>
   </si>
   <si>
@@ -71,84 +59,114 @@
     <t>TDICB</t>
   </si>
   <si>
-    <t>2.25</t>
+    <t>4.50</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>3.50</t>
+    <t>7.00</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>4.75</t>
+    <t>9.50</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>TDICF</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>PIDCB</t>
+  </si>
+  <si>
+    <t>7.55</t>
+  </si>
+  <si>
+    <t>PIDCC</t>
+  </si>
+  <si>
+    <t>10.05</t>
+  </si>
+  <si>
+    <t>PIDCD</t>
+  </si>
+  <si>
+    <t>12.55</t>
+  </si>
+  <si>
+    <t>PIDCE</t>
+  </si>
+  <si>
+    <t>15.05</t>
+  </si>
+  <si>
+    <t>PIDCF</t>
+  </si>
+  <si>
+    <t>22.55</t>
+  </si>
+  <si>
+    <t>PIDCA</t>
+  </si>
+  <si>
+    <t>TDICA</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>PIDCU</t>
+  </si>
+  <si>
+    <t>TDICU</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>MPCSC</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>MTCSC</t>
+  </si>
+  <si>
+    <t>MPRSC</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>CPVNA</t>
+  </si>
+  <si>
+    <t>5600.00</t>
+  </si>
+  <si>
+    <t>CP90X</t>
+  </si>
+  <si>
+    <t>CIPNT</t>
+  </si>
+  <si>
+    <t>CPINT</t>
+  </si>
+  <si>
     <t>6.00</t>
   </si>
   <si>
-    <t>TDICF</t>
-  </si>
-  <si>
-    <t>9.75</t>
-  </si>
-  <si>
-    <t>PIDCB</t>
-  </si>
-  <si>
-    <t>4.15</t>
-  </si>
-  <si>
-    <t>PIDCC</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>PIDCD</t>
-  </si>
-  <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>PIDCE</t>
-  </si>
-  <si>
-    <t>7.90</t>
-  </si>
-  <si>
-    <t>PIDCF</t>
-  </si>
-  <si>
-    <t>11.65</t>
-  </si>
-  <si>
-    <t>PIDCA</t>
-  </si>
-  <si>
-    <t>TDICA</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>PIDCU</t>
-  </si>
-  <si>
-    <t>15.40</t>
-  </si>
-  <si>
-    <t>TDICU</t>
-  </si>
-  <si>
-    <t>14.00</t>
-  </si>
-  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -161,40 +179,19 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>CIINT</t>
-  </si>
-  <si>
-    <t>3.03</t>
-  </si>
-  <si>
-    <t>CIROZ</t>
-  </si>
-  <si>
-    <t>1.08</t>
-  </si>
-  <si>
-    <t>CIRRZ</t>
+    <t>0.14</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.18</t>
+    <t>0.25</t>
   </si>
   <si>
     <t>CISIN</t>
   </si>
   <si>
-    <t>0.10</t>
-  </si>
-  <si>
-    <t>CIRSO</t>
-  </si>
-  <si>
-    <t>0.08</t>
+    <t>0.00</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -203,6 +200,12 @@
     <t>SÍ</t>
   </si>
   <si>
+    <t>MPMVE</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Posventa Y BONO</t>
   </si>
   <si>
@@ -218,160 +221,115 @@
     <t>Servicio Suplementario a nivel de Cuenta</t>
   </si>
   <si>
-    <t>BRW09</t>
-  </si>
-  <si>
-    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
-  </si>
-  <si>
-    <t>Ese PDF contiene la siguiente Tarifa LVSH5</t>
+    <t>BRW01</t>
   </si>
   <si>
     <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
   </si>
   <si>
+    <t>Ese PDF contiene la siguiente Tarifa XPS</t>
+  </si>
+  <si>
     <t>Ese PDF contiene la siguiente Tarifa MPMVD</t>
   </si>
   <si>
     <t>Ese PDF contiene más de una tarifa como:</t>
   </si>
   <si>
-    <t>LVSH5</t>
-  </si>
-  <si>
-    <t>Primaria</t>
-  </si>
-  <si>
     <t>Integrado Colaboración</t>
   </si>
   <si>
+    <t>XPS</t>
+  </si>
+  <si>
+    <t>REDBOX</t>
+  </si>
+  <si>
     <t>Integrado SIP</t>
   </si>
   <si>
+    <t>DVXSV</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Tren de Red Box</t>
+  </si>
+  <si>
+    <t>DVXSO</t>
+  </si>
+  <si>
+    <t>DPIDC</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>DBREF</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>DRZRW</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>Tren de MPMVE</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
     <t>DVFGC</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Tren de Primaria</t>
+    <t>DVFFN</t>
+  </si>
+  <si>
+    <t>DVFOM</t>
   </si>
   <si>
     <t>DVFMV</t>
   </si>
   <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>DVFOM</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>DVFFN</t>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
   </si>
   <si>
     <t>DVFIN</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>DCRMB</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>DCRME</t>
-  </si>
-  <si>
-    <t>DVPOA</t>
-  </si>
-  <si>
-    <t>DVPOM</t>
-  </si>
-  <si>
-    <t>DVSOA</t>
-  </si>
-  <si>
-    <t>DVSOM</t>
-  </si>
-  <si>
-    <t>DFAXC</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>DVMTM</t>
-  </si>
-  <si>
-    <t>DESIM</t>
-  </si>
-  <si>
-    <t>DPIDC</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>DDCRW</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>DBREF</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>DVMOV</t>
-  </si>
-  <si>
-    <t>DVOOM</t>
-  </si>
-  <si>
-    <t>DVFNA</t>
-  </si>
-  <si>
-    <t>DVGCU</t>
-  </si>
-  <si>
-    <t>DVSMV</t>
-  </si>
-  <si>
-    <t>DVSMO</t>
-  </si>
-  <si>
-    <t>DVRRE</t>
-  </si>
-  <si>
-    <t>DVRSA</t>
-  </si>
-  <si>
-    <t>DVSMR</t>
-  </si>
-  <si>
-    <t>DVINT</t>
-  </si>
-  <si>
-    <t>DV90X</t>
-  </si>
-  <si>
-    <t>DRZRW</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tren del MultiCIF-Nuevo JO</t>
+    <t>DVFES</t>
+  </si>
+  <si>
+    <t>Tren del MPMVE-Nuevo JO</t>
   </si>
 </sst>
 </file>
@@ -416,7 +374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -452,29 +410,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -484,7 +420,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -492,232 +428,256 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s" s="0">
         <v>60</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s" s="0">
-        <v>59</v>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +687,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -735,79 +695,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>517.0</v>
+        <v>145.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="0">
         <v>76</v>
       </c>
     </row>
@@ -818,7 +773,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -840,7 +795,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>80</v>
@@ -848,24 +803,24 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>84</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -873,10 +828,10 @@
         <v>86</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -884,10 +839,10 @@
         <v>88</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -895,21 +850,21 @@
         <v>90</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B8" t="n" s="0">
-        <v>100.0</v>
+      <c r="B8" t="s" s="0">
+        <v>85</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -917,10 +872,10 @@
         <v>92</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -928,10 +883,10 @@
         <v>93</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -939,10 +894,10 @@
         <v>94</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -950,197 +905,98 @@
         <v>95</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="B21" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="B22" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="0">
-        <v>110</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C23" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="0">
-        <v>111</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C24" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="B25" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>118</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
   <si>
     <t>DCALF</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>DVFES</t>
-  </si>
-  <si>
-    <t>Tren del MPMVE-Nuevo JO</t>
   </si>
 </sst>
 </file>
@@ -831,7 +828,7 @@
         <v>85</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">

--- a/OfertaPDFDeActivacion.xlsx
+++ b/OfertaPDFDeActivacion.xlsx
@@ -8,48 +8,60 @@
   <sheets>
     <sheet name="Descuentos" r:id="rId3" sheetId="1"/>
     <sheet name="Minutos" r:id="rId4" sheetId="2"/>
-    <sheet name="PosventaYBROXXX" r:id="rId5" sheetId="3"/>
+    <sheet name="PosventaYBROWXXXX" r:id="rId5" sheetId="3"/>
     <sheet name="Trenes" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
-  <si>
-    <t>DCALF</t>
-  </si>
-  <si>
-    <t>Catalogo Terceros</t>
-  </si>
-  <si>
-    <t>RED BOX</t>
-  </si>
-  <si>
-    <t>DF100</t>
-  </si>
-  <si>
-    <t>DSCMS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="119">
+  <si>
+    <t>DROPJ</t>
+  </si>
+  <si>
+    <t>Descuentos Especial Empresas</t>
+  </si>
+  <si>
+    <t>Infinity, Integrada, colectiva</t>
+  </si>
+  <si>
+    <t>DRRPI</t>
+  </si>
+  <si>
+    <t>DSLIM</t>
+  </si>
+  <si>
+    <t>M2M, Infinity, Integrada</t>
+  </si>
+  <si>
+    <t>DCLI1</t>
+  </si>
+  <si>
+    <t>Descuentos Empresas</t>
+  </si>
+  <si>
+    <t>All types</t>
+  </si>
+  <si>
+    <t>DPOV5</t>
   </si>
   <si>
     <t>MPMVD</t>
   </si>
   <si>
-    <t>6.05</t>
+    <t>3.40</t>
   </si>
   <si>
     <t>MPMVB</t>
   </si>
   <si>
-    <t>1.55</t>
+    <t>1.90</t>
   </si>
   <si>
     <t>MPCOU</t>
   </si>
   <si>
-    <t>3.05</t>
-  </si>
-  <si>
     <t>MTCOU</t>
   </si>
   <si>
@@ -59,61 +71,61 @@
     <t>TDICB</t>
   </si>
   <si>
-    <t>4.50</t>
+    <t>2.25</t>
   </si>
   <si>
     <t>TDICC</t>
   </si>
   <si>
-    <t>7.00</t>
+    <t>3.50</t>
   </si>
   <si>
     <t>TDICD</t>
   </si>
   <si>
-    <t>9.50</t>
+    <t>4.75</t>
   </si>
   <si>
     <t>TDICE</t>
   </si>
   <si>
-    <t>12.00</t>
+    <t>6.00</t>
   </si>
   <si>
     <t>TDICF</t>
   </si>
   <si>
-    <t>19.50</t>
+    <t>9.75</t>
   </si>
   <si>
     <t>PIDCB</t>
   </si>
   <si>
-    <t>7.55</t>
+    <t>4.15</t>
   </si>
   <si>
     <t>PIDCC</t>
   </si>
   <si>
-    <t>10.05</t>
+    <t>5.40</t>
   </si>
   <si>
     <t>PIDCD</t>
   </si>
   <si>
-    <t>12.55</t>
+    <t>6.65</t>
   </si>
   <si>
     <t>PIDCE</t>
   </si>
   <si>
-    <t>15.05</t>
+    <t>7.90</t>
   </si>
   <si>
     <t>PIDCF</t>
   </si>
   <si>
-    <t>22.55</t>
+    <t>11.65</t>
   </si>
   <si>
     <t>PIDCA</t>
@@ -122,51 +134,21 @@
     <t>TDICA</t>
   </si>
   <si>
-    <t>3.00</t>
+    <t>1.50</t>
   </si>
   <si>
     <t>PIDCU</t>
   </si>
   <si>
+    <t>15.40</t>
+  </si>
+  <si>
     <t>TDICU</t>
   </si>
   <si>
     <t>14.00</t>
   </si>
   <si>
-    <t>MPCSC</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>MTCSC</t>
-  </si>
-  <si>
-    <t>MPRSC</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>CPVNA</t>
-  </si>
-  <si>
-    <t>5600.00</t>
-  </si>
-  <si>
-    <t>CP90X</t>
-  </si>
-  <si>
-    <t>CIPNT</t>
-  </si>
-  <si>
-    <t>CPINT</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t>CIGCU</t>
   </si>
   <si>
@@ -179,19 +161,40 @@
     <t>CI90X</t>
   </si>
   <si>
-    <t>0.14</t>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>CIINT</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>CIROZ</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>CIRRZ</t>
   </si>
   <si>
     <t>CISNA</t>
   </si>
   <si>
-    <t>0.25</t>
+    <t>0.18</t>
   </si>
   <si>
     <t>CISIN</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>CIRSO</t>
+  </si>
+  <si>
+    <t>0.08</t>
   </si>
   <si>
     <t>PKPID</t>
@@ -200,12 +203,6 @@
     <t>SÍ</t>
   </si>
   <si>
-    <t>MPMVE</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Posventa Y BONO</t>
   </si>
   <si>
@@ -221,58 +218,151 @@
     <t>Servicio Suplementario a nivel de Cuenta</t>
   </si>
   <si>
-    <t>BRW01</t>
+    <t>BRW09</t>
+  </si>
+  <si>
+    <t>Esa Oferta lleva POVFS y SOA, entonces hay que cargarla en el Gescore</t>
+  </si>
+  <si>
+    <t>Ese PDF contiene la siguiente Tarifa LVSH5</t>
   </si>
   <si>
     <t>Ese PDF contiene la siguiente Tarifa MPCOU</t>
   </si>
   <si>
-    <t>Ese PDF contiene la siguiente Tarifa XPS</t>
-  </si>
-  <si>
     <t>Ese PDF contiene la siguiente Tarifa MPMVD</t>
   </si>
   <si>
     <t>Ese PDF contiene más de una tarifa como:</t>
   </si>
   <si>
+    <t>LVSH5</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
     <t>Integrado Colaboración</t>
   </si>
   <si>
-    <t>XPS</t>
-  </si>
-  <si>
-    <t>REDBOX</t>
-  </si>
-  <si>
     <t>Integrado SIP</t>
   </si>
   <si>
-    <t>DVXSV</t>
+    <t>DVFGC</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Tren de Primaria</t>
+  </si>
+  <si>
+    <t>DVFMV</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>DVFOM</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Tren de Red Box</t>
-  </si>
-  <si>
-    <t>DVXSO</t>
+    <t>DVFFN</t>
+  </si>
+  <si>
+    <t>DVFIN</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>DCRMB</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>DCRME</t>
+  </si>
+  <si>
+    <t>DVPOA</t>
+  </si>
+  <si>
+    <t>DVPOM</t>
+  </si>
+  <si>
+    <t>DVSOA</t>
+  </si>
+  <si>
+    <t>DVSOM</t>
+  </si>
+  <si>
+    <t>DFAXC</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>DVMTM</t>
+  </si>
+  <si>
+    <t>DESIM</t>
   </si>
   <si>
     <t>DPIDC</t>
   </si>
   <si>
-    <t>50</t>
+    <t>75</t>
+  </si>
+  <si>
+    <t>DDCRW</t>
+  </si>
+  <si>
+    <t>45</t>
   </si>
   <si>
     <t>DBREF</t>
   </si>
   <si>
-    <t>100</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>DVMOV</t>
+  </si>
+  <si>
+    <t>DVOOM</t>
+  </si>
+  <si>
+    <t>DVFNA</t>
+  </si>
+  <si>
+    <t>DVGCU</t>
+  </si>
+  <si>
+    <t>DVSMV</t>
+  </si>
+  <si>
+    <t>DVSMO</t>
+  </si>
+  <si>
+    <t>DVRRE</t>
+  </si>
+  <si>
+    <t>DVRSA</t>
+  </si>
+  <si>
+    <t>DVSMR</t>
+  </si>
+  <si>
+    <t>DVINT</t>
+  </si>
+  <si>
+    <t>DV90X</t>
   </si>
   <si>
     <t>DRZRW</t>
@@ -281,52 +371,7 @@
     <t/>
   </si>
   <si>
-    <t>DVMOV</t>
-  </si>
-  <si>
-    <t>Tren de MPMVE</t>
-  </si>
-  <si>
-    <t>DVOOM</t>
-  </si>
-  <si>
-    <t>DVFNA</t>
-  </si>
-  <si>
-    <t>DVGCU</t>
-  </si>
-  <si>
-    <t>DVSMV</t>
-  </si>
-  <si>
-    <t>DVSMO</t>
-  </si>
-  <si>
-    <t>DVFGC</t>
-  </si>
-  <si>
-    <t>DVFFN</t>
-  </si>
-  <si>
-    <t>DVFOM</t>
-  </si>
-  <si>
-    <t>DVFMV</t>
-  </si>
-  <si>
-    <t>DVSMR</t>
-  </si>
-  <si>
-    <t>DVINT</t>
-  </si>
-  <si>
-    <t>DV90X</t>
-  </si>
-  <si>
-    <t>DVFIN</t>
-  </si>
-  <si>
-    <t>DVFES</t>
+    <t>Tren del MultiCIF-Nuevo JO</t>
   </si>
 </sst>
 </file>
@@ -371,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -407,7 +452,29 @@
         <v>1</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -417,7 +484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -425,256 +492,232 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +727,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -692,74 +735,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>145.0</v>
+        <v>517.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>66</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>74</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>76</v>
       </c>
     </row>
@@ -770,7 +818,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -792,7 +840,7 @@
         <v>81</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s" s="0">
         <v>80</v>
@@ -800,24 +848,24 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
@@ -825,10 +873,10 @@
         <v>86</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -836,10 +884,10 @@
         <v>88</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -847,21 +895,21 @@
         <v>90</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B8" t="s" s="0">
-        <v>85</v>
+      <c r="B8" t="n" s="0">
+        <v>100.0</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -869,10 +917,10 @@
         <v>92</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -880,10 +928,10 @@
         <v>93</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -891,10 +939,10 @@
         <v>94</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -902,98 +950,197 @@
         <v>95</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>89</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>89</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
